--- a/ac translations/Portuguese.xlsx
+++ b/ac translations/Portuguese.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvi\Desktop\dev\helpers\translation fetcher\ac translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10290" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10290" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Portuguese Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1199,6 +1199,18 @@
     <t>comando para ar condicionado</t>
   </si>
   <si>
+    <t>Selecone o Seu Comando</t>
+  </si>
+  <si>
+    <t>Ou pode obter outro adaptador semelhante, a maioria deve funcionar.\nPode encontrá-los no eBay ou Aliexpress, basta pesquisar por \"adaptador infravermelho headhphones jack\"</t>
+  </si>
+  <si>
+    <t>Como: Quarto</t>
+  </si>
+  <si>
+    <t>2. Verifica se está a usar o comando correto, poderá haver um diferente que funciona para si</t>
+  </si>
+  <si>
     <t>Edicão GRÁTIS por tempo limitado
 Perdeu o comando do ar condicionado? Sem problemas!
 **AVISO
@@ -1209,8 +1221,6 @@
 Não tem a certeza se tem? Pode experimentar descarregar a app e ver se funciona
 Perdeu o seu comando? Peça-nos um na app
 Funcionalidades:
-* Controle a sua TV ____ com o seu telemóvel
-* Controle o VOLUME da sua TV (mais/menos/silenciar/av)
 * GUARDE os seus comandos favoritos para acesso rápido
 * SEM instalação, basta clicar e usar
 * Design FANTÁSTICO com uma interface fácil e divertido
@@ -1218,23 +1228,11 @@
 Não hesite em contactar-nos em _____
 Comando TV, basta entrar, definir e usar.</t>
   </si>
-  <si>
-    <t>Selecone o Seu Comando</t>
-  </si>
-  <si>
-    <t>Ou pode obter outro adaptador semelhante, a maioria deve funcionar.\nPode encontrá-los no eBay ou Aliexpress, basta pesquisar por \"adaptador infravermelho headhphones jack\"</t>
-  </si>
-  <si>
-    <t>Como: Quarto</t>
-  </si>
-  <si>
-    <t>2. Verifica se está a usar o comando correto, poderá haver um diferente que funciona para si</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -1698,11 +1696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1905,7 +1903,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
         <v>33</v>
@@ -2277,7 +2275,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F48" t="s">
         <v>94</v>
@@ -2699,7 +2697,7 @@
         <v>160</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F83" t="s">
         <v>161</v>
@@ -2927,7 +2925,7 @@
         <v>197</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F102" t="s">
         <v>198</v>
@@ -3329,7 +3327,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="360">
+    <row r="136" spans="1:6" ht="345">
       <c r="A136" s="10" t="s">
         <v>263</v>
       </c>
@@ -3337,7 +3335,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>

--- a/ac translations/Portuguese.xlsx
+++ b/ac translations/Portuguese.xlsx
@@ -1701,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
